--- a/main/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/main/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T14:18:54+00:00</t>
+    <t>2025-06-02T12:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
